--- a/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_Data_Dictionary.xlsx
@@ -6871,7 +6871,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>${project.version}</t>
+    <t>1.51.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
